--- a/exports/Shift_Allowances_03-2025.xlsx
+++ b/exports/Shift_Allowances_03-2025.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,64 +500,39 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>shift_a_days</t>
+          <t>shift_types</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>shift_b_days</t>
+          <t>billability_status</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>shift_c_days</t>
+          <t>practice_remarks</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>prime_days</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>total_days</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>billability_status</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>practice_remarks</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
           <t>rmg_comments</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>amar_approval</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IN01804070</t>
+          <t>IN01800341</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mahammad Riyaz SHAIK</t>
+          <t>Karthik KONCHADA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -567,22 +542,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vertisystem Inc</t>
+          <t>DZS Inc</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HGV_NOC</t>
+          <t>DZSINC_Support_MGD</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MTUS_CY24_VERTIS_SPT_MGD_A</t>
+          <t>US_DZSINC_SPT_MGD_A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Parthasarathy Reddy BOKKA</t>
+          <t>Sunil Pasupuleti</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -603,56 +578,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>19</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>19</v>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>client holiday on 17th Feb</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IN01801072</t>
+          <t>IN01804070</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Madhu Pavan Kumar  TELAPROLU</t>
+          <t>Mahammad Riyaz SHAIK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -662,22 +622,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Clair Source Group</t>
+          <t>Vertisystem Inc</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CLAIRE'S_TNM</t>
+          <t>HGV_NOC</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>US_CLAIRS_DEV_MGD_A</t>
+          <t>MTUS_CY24_VERTIS_SPT_MGD_A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Siva Dega</t>
+          <t>Parthasarathy Reddy BOKKA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -698,56 +658,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>10</v>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IN01800119</t>
+          <t>IN01801072</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Swagath Banda</t>
+          <t>Madhu Pavan Kumar  TELAPROLU</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -757,22 +702,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vertisystem Inc</t>
+          <t>Clair Source Group</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HGV_NOC</t>
+          <t>CLAIRE'S_TNM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MTUS_CY24_VERTIS_SPT_MGD_A</t>
+          <t>US_CLAIRS_DEV_MGD_A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Parthasarathy Reddy BOKKA</t>
+          <t>Siva Dega</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -793,56 +738,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>20</v>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PRIME</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IN01801194</t>
+          <t>IN01800119</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Madhusudhan THAMMALA</t>
+          <t>Swagath Banda</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>L3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -852,22 +782,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ILC Dover</t>
+          <t>Vertisystem Inc</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ILCD_MSP_Project</t>
+          <t>HGV_NOC</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>US_ILCDOV_DEV_MGD_B</t>
+          <t>MTUS_CY24_VERTIS_SPT_MGD_A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Jay Nagaram</t>
+          <t>Parthasarathy Reddy BOKKA</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -888,51 +818,36 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>15</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>15</v>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Did not fill timesheets from 24th Feb as on 19th March (13:30)</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IN01802005</t>
+          <t>IN01801194</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Umamaheswara Rao  JONNAKUTI</t>
+          <t>Madhusudhan THAMMALA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -983,39 +898,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>13</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>20</v>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Did not fill timesheets from 24th Feb as on 19th March (13:30)</t>
         </is>
       </c>
     </row>
@@ -1071,63 +971,48 @@
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>A, PRIME</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN01804122</t>
+          <t>IN01802005</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Naveen Sanapathi</t>
+          <t>Umamaheswara Rao  JONNAKUTI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1166,58 +1051,43 @@
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>19</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>22</v>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>A, PRIME</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN01800974</t>
+          <t>IN01804122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Swaroop KOPANATHI</t>
+          <t>Naveen Sanapathi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1268,51 +1138,36 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>19</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>19</v>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>A, PRIME</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IN01801361</t>
+          <t>IN01800974</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Praneeth Swaroop Varma KOSURI</t>
+          <t>Swaroop KOPANATHI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1327,22 +1182,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LeaseLock Inc</t>
+          <t>ILC Dover</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LeaseLock IMS</t>
+          <t>ILCD_MSP_Project</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>US_LEASLK_ICNE_SPT_FBD_A</t>
+          <t>US_ILCDOV_DEV_MGD_B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Mayuri DARABASTU</t>
+          <t>Jay Nagaram</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1363,51 +1218,36 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>18</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>18</v>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IN01805469</t>
+          <t>IN01801361</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Obulesu Marriboina</t>
+          <t>Praneeth Swaroop Varma KOSURI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1422,22 +1262,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ILC Dover</t>
+          <t>LeaseLock Inc</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ILCD_MSP_Project</t>
+          <t>LeaseLock IMS</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>US_ILCDOV_DEV_MGD_B</t>
+          <t>US_LEASLK_ICNE_SPT_FBD_A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Jay Nagaram</t>
+          <t>Mayuri DARABASTU</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1458,51 +1298,36 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>19</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>20</v>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IN01804752</t>
+          <t>IN01805469</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Phani Kumar PONNADA</t>
+          <t>Obulesu Marriboina</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1553,86 +1378,71 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>20</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>20</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Non Billable</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>A, PRIME</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Billable</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IN01804396</t>
+          <t>IN01804752</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Monika  GANGAM</t>
+          <t>Phani Kumar PONNADA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BPS</t>
+          <t>Infra - IT Operations</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CHEP USA Inc</t>
+          <t>ILC Dover</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CHEP_DCAP_AMS</t>
+          <t>ILCD_MSP_Project</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>US01_0225_CHEPIN_SPT_MGD_E</t>
+          <t>US_ILCDOV_DEV_MGD_B</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Srinivas Chowtapalli</t>
+          <t>Jay Nagaram</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Kathiravan K</t>
+          <t>Swagath Banda</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1648,51 +1458,36 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>9</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>18</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Billable</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Worked in A &amp; B shift </t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Non Billable</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IN01804611</t>
+          <t>IN01804396</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Prudhvi Sai  KANNEPALLI</t>
+          <t>Monika  GANGAM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1743,56 +1538,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>18</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>18</v>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Worked in A shift only</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Worked in A &amp; B shift </t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN01802763</t>
+          <t>IN01804611</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Radha Singh  THAKUR</t>
+          <t>Prudhvi Sai  KANNEPALLI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1802,22 +1582,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LeaseLock Inc</t>
+          <t>CHEP USA Inc</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LeaseLock SPT TNM Ã¢Â€Â“ BPS</t>
+          <t>CHEP_DCAP_AMS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MTUS_CY24_LEASLK_SPT_TNM_E</t>
+          <t>US01_0225_CHEPIN_SPT_MGD_E</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Mayuri DARABASTU</t>
+          <t>Srinivas Chowtapalli</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1838,51 +1618,36 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>16</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>17</v>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Worked in A &amp; Prime shift</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Worked in A shift only</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IN01800976</t>
+          <t>IN01802763</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bala Krishna PANDIKONDA</t>
+          <t>Radha Singh  THAKUR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1892,32 +1657,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Accounts &amp; Finance</t>
+          <t>BPS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOURI Tech Limited</t>
+          <t>LeaseLock Inc</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Accounts Receivable</t>
+          <t>LeaseLock SPT TNM Ã¢Â€Â“ BPS</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MTIN_FIN_ACCREC</t>
+          <t>MTUS_CY24_LEASLK_SPT_TNM_E</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Amarnath ANUMANDLA</t>
+          <t>Mayuri DARABASTU</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Varalakshmi Y</t>
+          <t>Kathiravan K</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1933,56 +1698,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>20</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>20</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Non Billable</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>A, PRIME</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Billable</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Worked in A &amp; Prime shift</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IN01804078</t>
+          <t>IN01800976</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Srikanth  NEERATI</t>
+          <t>Bala Krishna PANDIKONDA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1992,17 +1742,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOURI Tech LLC</t>
+          <t>MOURI Tech Limited</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Accounts Payable</t>
+          <t>Accounts Receivable</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MTUS_FIN_ACCPAY</t>
+          <t>MTIN_FIN_ACCREC</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2028,51 +1778,36 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>15</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>15</v>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>Non Billable</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IN01805166</t>
+          <t>IN01804078</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Savitri KANCHARLA</t>
+          <t>Srikanth  NEERATI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2082,192 +1817,162 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IQE</t>
+          <t>Accounts &amp; Finance</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vertisystem Inc</t>
+          <t>MOURI Tech LLC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HGV Clarity Consolidation</t>
+          <t>Accounts Payable</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MTUS_CY24_VERTIS_SPT_TNM_C</t>
+          <t>MTUS_FIN_ACCPAY</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Parthasarathy Reddy BOKKA</t>
+          <t>Amarnath ANUMANDLA</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Srikanth Bura</t>
+          <t>Varalakshmi Y</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Mani Venkata Sunil VELAGAPUDI</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Billable</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Arrears 2 of Jan 25, Total 21 days</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Non Billable</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IN01804831</t>
+          <t>IN01805166</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Raja PAMIDIMUKKALA</t>
+          <t>Savitri KANCHARLA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Digital Engineering</t>
+          <t>IQE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>American Tire Distributors Inc</t>
+          <t>Vertisystem Inc</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ATD CAS Team</t>
+          <t>HGV Clarity Consolidation</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MTUS_CY24_ATDINC_SPT_TNM_G</t>
+          <t>MTUS_CY24_VERTIS_SPT_TNM_C</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Amit Kulkarni</t>
+          <t>Parthasarathy Reddy BOKKA</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Suresh Tukaram SUTAR</t>
+          <t>Srikanth Bura</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Shalabh BHARGAVA</t>
+          <t>Mani Venkata Sunil VELAGAPUDI</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>17</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>17</v>
-      </c>
-      <c r="R19" t="inlineStr">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Code changed. But same client</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Arrears 2 of Jan 25, Total 21 days</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IN01801926</t>
+          <t>IN01804831</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kartheek Naidu  ALAMURI</t>
+          <t>Raja PAMIDIMUKKALA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2313,56 +2018,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>20</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>20</v>
-      </c>
-      <c r="R20" t="inlineStr">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>Code changed. But same client</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IN01802604</t>
+          <t>IN01801926</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ganesh  YERME</t>
+          <t>Kartheek Naidu  ALAMURI</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2372,22 +2062,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>National Council of Young Men's Christian Association of the USA of America</t>
+          <t>American Tire Distributors Inc</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Virtual-Y</t>
+          <t>ATD CAS Team</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>US_YMCAUS_DEV_MGD_O</t>
+          <t>MTUS_CY24_ATDINC_SPT_TNM_G</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Abhijeet Patil</t>
+          <t>Amit Kulkarni</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2397,7 +2087,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Abhijeet Bhikaji PATIL</t>
+          <t>Shalabh BHARGAVA</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
@@ -2408,56 +2098,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>18</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>18</v>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Code changed. But same client</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IN01803511</t>
+          <t>IN01802604</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aadesh Sanjay  CHENDAKE</t>
+          <t>Ganesh  YERME</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2467,22 +2142,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>National Grid USA Service Company Inc</t>
+          <t>National Council of Young Men's Christian Association of the USA of America</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NG SRE 2024-25</t>
+          <t>Virtual-Y</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MTUS_CY24_ NATGRD_DEV_FBD_G</t>
+          <t>US_YMCAUS_DEV_MGD_O</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Siva Dega</t>
+          <t>Abhijeet Patil</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2492,7 +2167,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Venkata Surya Srinivas Sastry MADHIRA</t>
+          <t>Abhijeet Bhikaji PATIL</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
@@ -2503,56 +2178,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>16</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>16</v>
-      </c>
-      <c r="R22" t="inlineStr">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IN01802406</t>
+          <t>IN01803511</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Shanmukha Upendra  VEDAA</t>
+          <t>Aadesh Sanjay  CHENDAKE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2598,56 +2258,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>19</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>19</v>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN01802927</t>
+          <t>IN01802406</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kishan Chaithanya K V H</t>
+          <t>Shanmukha Upendra  VEDAA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2677,12 +2322,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Rituraj Tukaram PATIL</t>
+          <t>Suresh Tukaram SUTAR</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jagadeesh babu borra</t>
+          <t>Venkata Surya Srinivas Sastry MADHIRA</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
@@ -2693,51 +2338,36 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" t="inlineStr">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IN01804965</t>
+          <t>IN01802927</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Akshay Anandrao Bhosale</t>
+          <t>Kishan Chaithanya K V H</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2752,32 +2382,32 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SoulCycle Inc</t>
+          <t>National Grid USA Service Company Inc</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DIGI-DEV</t>
+          <t>NG SRE 2024-25</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MTUS_CY24_SOULCY_DEV_TNM_B</t>
+          <t>MTUS_CY24_ NATGRD_DEV_FBD_G</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nanda Kishore BOGAM</t>
+          <t>Siva Dega</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Suresh Tukaram SUTAR</t>
+          <t>Rituraj Tukaram PATIL</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Nanda Kishore BOGAM</t>
+          <t>Jagadeesh babu borra</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
@@ -2788,56 +2418,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>11</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>11</v>
-      </c>
-      <c r="R25" t="inlineStr">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IN01800970</t>
+          <t>IN01804965</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pradeep Kumar MANNE</t>
+          <t>Akshay Anandrao Bhosale</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2847,32 +2462,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Alaska Communications Systems Holdings Inc</t>
+          <t>SoulCycle Inc</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Redline Manpower</t>
+          <t>DIGI-DEV</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>US01_0125_ALASKA_SPT_TNM_A</t>
+          <t>MTUS_CY24_SOULCY_DEV_TNM_B</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Neelesh KURRA</t>
+          <t>Nanda Kishore BOGAM</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Abhijeet Harishchandra ALONE</t>
+          <t>Suresh Tukaram SUTAR</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Mr. Amith Chandra KULKARNI / Neelesh KURRA</t>
+          <t>Nanda Kishore BOGAM</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
@@ -2883,51 +2498,36 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>20</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>20</v>
-      </c>
-      <c r="R26" t="inlineStr">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IN01801441</t>
+          <t>IN01800970</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Venkatesh ARETI</t>
+          <t>Pradeep Kumar MANNE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2942,32 +2542,32 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lazard Freres &amp; Co LLC</t>
+          <t>Alaska Communications Systems Holdings Inc</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lazard_support_TNM_A</t>
+          <t>Redline Manpower</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>US_LAZARD_SPT_TNM_A</t>
+          <t>US01_0125_ALASKA_SPT_TNM_A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sunil Navva</t>
+          <t>Neelesh KURRA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Sailaja GUDALA</t>
+          <t>Abhijeet Harishchandra ALONE</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Sunil Kumar Navva</t>
+          <t>Mr. Amith Chandra KULKARNI / Neelesh KURRA</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
@@ -2978,56 +2578,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>19</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>19</v>
-      </c>
-      <c r="R27" t="inlineStr">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IN01801960</t>
+          <t>IN01801441</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vijayabhaskar UMMANABOINA</t>
+          <t>Venkatesh ARETI</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3037,32 +2622,32 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Vertisystem Inc</t>
+          <t>Lazard Freres &amp; Co LLC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HGV_NOC</t>
+          <t>Lazard_support_TNM_A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MTUS_CY24_VERTIS_SPT_MGD_A</t>
+          <t>US_LAZARD_SPT_TNM_A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Parthasarathy Reddy BOKKA</t>
+          <t>Sunil Navva</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Suresh Tukaram SUTAR</t>
+          <t>Sailaja GUDALA</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hassan Ali Syed</t>
+          <t>Sunil Kumar Navva</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
@@ -3073,56 +2658,41 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>12</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>12</v>
-      </c>
-      <c r="R28" t="inlineStr">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IN01803285</t>
+          <t>IN01801960</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ashok Kumar Reddy Chadive</t>
+          <t>Vijayabhaskar UMMANABOINA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3152,12 +2722,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sailaja GUDALA</t>
+          <t>Suresh Tukaram SUTAR</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Varnika D(Vertisystem) /Mani Venkata Sunil VELAGAPUDI(Mouritech)</t>
+          <t>Hassan Ali Syed</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
@@ -3168,91 +2738,76 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>20</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>20</v>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IN01800341</t>
+          <t>IN01803285</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Karthik KONCHADA</t>
+          <t>Ashok Kumar Reddy Chadive</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Infra - IT Operations</t>
+          <t>Digital Engineering</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DZS Inc</t>
+          <t>Vertisystem Inc</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DZSINC_Support_MGD</t>
+          <t>HGV_NOC</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>US_DZSINC_SPT_MGD_A</t>
+          <t>MTUS_CY24_VERTIS_SPT_MGD_A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sunil Pasupuleti</t>
+          <t>Parthasarathy Reddy BOKKA</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Swagath Banda</t>
+          <t>Sailaja GUDALA</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Varnika D(Vertisystem) /Mani Venkata Sunil VELAGAPUDI(Mouritech)</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
@@ -3263,39 +2818,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>25</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>25</v>
-      </c>
-      <c r="R30" t="inlineStr">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>client holiday on 17th Feb</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3358,39 +2898,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>20</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>20</v>
-      </c>
-      <c r="R31" t="inlineStr">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>No timesheets available for 13-17 Dec. Requested resoure to share client timesheet.</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -3453,39 +2978,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>19</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>19</v>
-      </c>
-      <c r="R32" t="inlineStr">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>Provided 20 days but as per timesheets only 19 days available</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -3548,39 +3058,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>20</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>20</v>
-      </c>
-      <c r="R33" t="inlineStr">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3643,39 +3138,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>20</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>20</v>
-      </c>
-      <c r="R34" t="inlineStr">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3738,39 +3218,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>18</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>18</v>
-      </c>
-      <c r="R35" t="inlineStr">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3833,39 +3298,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>17</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>17</v>
-      </c>
-      <c r="R36" t="inlineStr">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3928,39 +3378,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>20</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>20</v>
-      </c>
-      <c r="R37" t="inlineStr">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4023,39 +3458,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>20</v>
-      </c>
-      <c r="R38" t="inlineStr">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>PRIME</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4118,39 +3538,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>10</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>10</v>
-      </c>
-      <c r="R39" t="inlineStr">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>Internal SD &amp; SVI projects</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4213,39 +3618,24 @@
           <t>03-2025</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>11</v>
-      </c>
-      <c r="N40" t="n">
-        <v>9</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>20</v>
-      </c>
-      <c r="R40" t="inlineStr">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>Billable</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
